--- a/Assets/format/instansi.xlsx
+++ b/Assets/format/instansi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pegawaiRS\kepegawaian\Assets\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8939ED-C610-41AE-9FB8-ABB23368DC2D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B959E7-FED7-4386-AC55-F2151FF7A0E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{703549F7-F45A-4F9D-98FA-BAC6B84C8DC6}"/>
   </bookViews>
@@ -91,12 +91,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -107,8 +122,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +441,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
